--- a/Chain_Uart/M5Stack-Chian-Uart-通讯协议-V1.xlsx
+++ b/Chain_Uart/M5Stack-Chian-Uart-通讯协议-V1.xlsx
@@ -662,17 +662,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="10">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ \ @"/>
-    <numFmt numFmtId="177" formatCode="\ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="179" formatCode="\ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="180" formatCode="\ \ \ \ \ \ \ \ \ \ \ \ 0_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1385,7 +1382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1402,16 +1399,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1434,25 +1422,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,8 +1774,8 @@
   </sheetPr>
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
@@ -1818,13 +1806,13 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="11" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1837,11 +1825,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="22">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="19">
         <v>45595</v>
       </c>
     </row>
@@ -1855,2067 +1843,2067 @@
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>6</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="20">
         <v>7</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="20">
         <v>8</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="20">
         <v>9</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="10.3" customHeight="1" spans="1:13">
       <c r="A4" s="2"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:13">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:13">
       <c r="A6" s="2"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="20" t="s">
+      <c r="H6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" ht="80" customHeight="1" spans="1:13">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:13">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="I8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:13">
       <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="20"/>
+      <c r="L9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" ht="71" customHeight="1" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="1:13">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="16" t="s">
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="1" spans="1:13">
       <c r="A12" s="2"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:13">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="20"/>
+      <c r="L14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" customFormat="1" ht="25" customHeight="1" spans="1:13">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="D15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="20"/>
+      <c r="L15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" customFormat="1" ht="95" customHeight="1" spans="1:13">
-      <c r="A16" s="13"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="D18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="20" t="s">
+      <c r="H18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" customFormat="1" ht="87" customHeight="1" spans="1:13">
-      <c r="A19" s="13"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" customFormat="1" ht="22" customHeight="1" spans="1:13">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="G20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="D21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="58" customHeight="1" spans="1:13">
-      <c r="A22" s="13"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="16" t="s">
+      <c r="D23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="17" t="s">
+      <c r="I23" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="J23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="16" t="s">
+      <c r="D24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="H24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" customFormat="1" ht="54" customHeight="1" spans="1:13">
-      <c r="A25" s="13"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="16" t="s">
+      <c r="D26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="20" t="s">
+      <c r="G26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
     </row>
     <row r="27" customFormat="1" ht="19" customHeight="1" spans="1:13">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="16" t="s">
+      <c r="D27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
+      <c r="J27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" customFormat="1" ht="30" customHeight="1" spans="1:13">
-      <c r="A28" s="13"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
     </row>
     <row r="29" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="16" t="s">
+      <c r="D29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="20" t="s">
+      <c r="H29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="16" t="s">
+      <c r="D30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="20" t="s">
+      <c r="H30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" customFormat="1" ht="52" customHeight="1" spans="1:13">
-      <c r="A31" s="13"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="16" t="s">
+      <c r="D32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="20" t="s">
+      <c r="G32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="16" t="s">
+      <c r="D33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="20" t="s">
+      <c r="H33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" customFormat="1" ht="29" customHeight="1" spans="1:13">
-      <c r="A34" s="13"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="16" t="s">
+      <c r="D35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="L35" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="20"/>
+      <c r="L35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="17"/>
     </row>
     <row r="36" customFormat="1" ht="13" customHeight="1" spans="1:13">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="16" t="s">
+      <c r="D36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="H36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
     </row>
     <row r="37" customFormat="1" ht="156" customHeight="1" spans="1:13">
-      <c r="A37" s="13"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
     </row>
     <row r="38" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="16" t="s">
+      <c r="D38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I38" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="I38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
     </row>
     <row r="39" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="16" t="s">
+      <c r="D39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="20" t="s">
+      <c r="H39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" customFormat="1" ht="84" customHeight="1" spans="1:13">
-      <c r="A40" s="13"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="16" t="s">
+      <c r="D41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="20" t="s">
+      <c r="H41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="16" t="s">
+      <c r="D42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="I42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
     </row>
     <row r="43" customFormat="1" ht="91" customHeight="1" spans="1:13">
-      <c r="A43" s="13"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="16" t="s">
+      <c r="D44" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="J44" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="J44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
     </row>
     <row r="45" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="16" t="s">
+      <c r="D45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="20" t="s">
+      <c r="H45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
     </row>
     <row r="46" customFormat="1" ht="97" customHeight="1" spans="1:13">
-      <c r="A46" s="13"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
     </row>
     <row r="47" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
     </row>
     <row r="48" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="16" t="s">
+      <c r="D48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I48" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="I48" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
     </row>
     <row r="49" customFormat="1" ht="74" customHeight="1" spans="1:13">
-      <c r="A49" s="13"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
     </row>
     <row r="50" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="16" t="s">
+      <c r="D50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H50" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
+      <c r="I50" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
     </row>
     <row r="51" customFormat="1" ht="20" customHeight="1" spans="1:13">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="16" t="s">
+      <c r="D51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
+      <c r="H51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
     </row>
     <row r="52" customFormat="1" ht="69" customHeight="1" spans="1:13">
-      <c r="A52" s="13"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="16" t="s">
+      <c r="D53" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G53" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="20" t="s">
+      <c r="G53" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
     </row>
     <row r="54" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="16" t="s">
+      <c r="D54" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I54" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K54" s="17" t="s">
+      <c r="K54" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="L54" s="17" t="s">
+      <c r="L54" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M54" s="18" t="s">
+      <c r="M54" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" customFormat="1" ht="66" customHeight="1" spans="1:13">
-      <c r="A55" s="13"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
     </row>
     <row r="56" customFormat="1" ht="25" customHeight="1" spans="1:13">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="16" t="s">
+      <c r="D56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G56" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="20" t="s">
+      <c r="G56" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
     </row>
     <row r="57" customFormat="1" ht="23" customHeight="1" spans="1:13">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="D57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I57" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
+      <c r="I57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
     </row>
     <row r="58" customFormat="1" ht="75" customHeight="1" spans="1:13">
-      <c r="A58" s="13"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
     </row>
     <row r="59" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="16" t="s">
+      <c r="D59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G59" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
+      <c r="G59" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
     </row>
     <row r="60" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13" t="s">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="16" t="s">
+      <c r="D60" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
+      <c r="H60" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
     </row>
     <row r="61" customFormat="1" ht="39" customHeight="1" spans="1:13">
-      <c r="A61" s="13"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
     </row>
     <row r="62" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="16" t="s">
+      <c r="D62" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
+      <c r="G62" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
     </row>
     <row r="63" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="16" t="s">
+      <c r="D63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H63" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
+      <c r="H63" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
     </row>
     <row r="64" customFormat="1" ht="34" customHeight="1" spans="1:13">
-      <c r="A64" s="13"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
     </row>
     <row r="65" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="10" t="s">
         <v>128</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="16" t="s">
+      <c r="D65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
+      <c r="G65" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
     </row>
     <row r="66" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="16" t="s">
+      <c r="D66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H66" s="17" t="s">
+      <c r="H66" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I66" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
+      <c r="I66" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
     </row>
     <row r="67" customFormat="1" ht="38" customHeight="1" spans="1:13">
-      <c r="A67" s="13"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C67" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
     </row>
     <row r="68" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="10" t="s">
         <v>133</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
     </row>
     <row r="69" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13" t="s">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="15" t="s">
+      <c r="D69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
+      <c r="G69" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
     </row>
     <row r="70" customFormat="1" ht="28" customHeight="1" spans="1:13">
-      <c r="A70" s="13"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
     </row>
     <row r="71" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="15" t="s">
+      <c r="D71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
+      <c r="G71" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
     </row>
     <row r="72" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13" t="s">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="15" t="s">
+      <c r="D72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G72" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
+      <c r="G72" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="14"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
     </row>
     <row r="73" customFormat="1" ht="30" customHeight="1" spans="1:13">
-      <c r="A73" s="13"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
     </row>
     <row r="74" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="15" t="s">
+      <c r="D74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H74" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
+      <c r="H74" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
     </row>
     <row r="75" customFormat="1" ht="21" customHeight="1" spans="1:13">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13" t="s">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="15" t="s">
+      <c r="D75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G75" s="17" t="s">
+      <c r="G75" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="H75" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
+      <c r="H75" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
     </row>
     <row r="76" customFormat="1" ht="32" customHeight="1" spans="1:13">
-      <c r="A76" s="13"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
     </row>
     <row r="101" ht="13" customHeight="1"/>
     <row r="102" hidden="1"/>
